--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mmp9-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mmp9-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Mmp9</t>
+  </si>
+  <si>
+    <t>Ephb2</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Mmp9</t>
-  </si>
-  <si>
-    <t>Ephb2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>200.5095213333333</v>
+        <v>0.001904333333333333</v>
       </c>
       <c r="H2">
-        <v>601.528564</v>
+        <v>0.005713</v>
       </c>
       <c r="I2">
-        <v>0.9975440586742312</v>
+        <v>0.01334809965397277</v>
       </c>
       <c r="J2">
-        <v>0.9975440586742312</v>
+        <v>0.01334809965397277</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,22 +558,22 @@
         <v>19.038761</v>
       </c>
       <c r="O2">
-        <v>0.9446330608455225</v>
+        <v>0.921725411846598</v>
       </c>
       <c r="P2">
-        <v>0.9446330608455226</v>
+        <v>0.9217254118465981</v>
       </c>
       <c r="Q2">
-        <v>1272.484284963245</v>
+        <v>0.01208538239922222</v>
       </c>
       <c r="R2">
-        <v>11452.3585646692</v>
+        <v>0.108768441593</v>
       </c>
       <c r="S2">
-        <v>0.9423130974737045</v>
+        <v>0.01230328265092748</v>
       </c>
       <c r="T2">
-        <v>0.9423130974737046</v>
+        <v>0.01230328265092748</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>200.5095213333333</v>
+        <v>0.001904333333333333</v>
       </c>
       <c r="H3">
-        <v>601.528564</v>
+        <v>0.005713</v>
       </c>
       <c r="I3">
-        <v>0.9975440586742312</v>
+        <v>0.01334809965397277</v>
       </c>
       <c r="J3">
-        <v>0.9975440586742312</v>
+        <v>0.01334809965397277</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3719673333333333</v>
+        <v>0.5389353333333333</v>
       </c>
       <c r="N3">
-        <v>1.115902</v>
+        <v>1.616806</v>
       </c>
       <c r="O3">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="P3">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="Q3">
-        <v>74.5829919583031</v>
+        <v>0.001026312519777778</v>
       </c>
       <c r="R3">
-        <v>671.246927624728</v>
+        <v>0.009236812678</v>
       </c>
       <c r="S3">
-        <v>0.05523096120052675</v>
+        <v>0.001044817003045286</v>
       </c>
       <c r="T3">
-        <v>0.05523096120052675</v>
+        <v>0.001044817003045286</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +643,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -664,10 +664,10 @@
         <v>0.422288</v>
       </c>
       <c r="I4">
-        <v>0.000700300718303751</v>
+        <v>0.9866519003460271</v>
       </c>
       <c r="J4">
-        <v>0.0007003007183037508</v>
+        <v>0.9866519003460271</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,10 +682,10 @@
         <v>19.038761</v>
       </c>
       <c r="O4">
-        <v>0.9446330608455225</v>
+        <v>0.921725411846598</v>
       </c>
       <c r="P4">
-        <v>0.9446330608455226</v>
+        <v>0.9217254118465981</v>
       </c>
       <c r="Q4">
         <v>0.8933155894631112</v>
@@ -694,10 +694,10 @@
         <v>8.039840305168001</v>
       </c>
       <c r="S4">
-        <v>0.0006615272110435902</v>
+        <v>0.9094221291956703</v>
       </c>
       <c r="T4">
-        <v>0.0006615272110435902</v>
+        <v>0.9094221291956704</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,10 +726,10 @@
         <v>0.422288</v>
       </c>
       <c r="I5">
-        <v>0.000700300718303751</v>
+        <v>0.9866519003460271</v>
       </c>
       <c r="J5">
-        <v>0.0007003007183037508</v>
+        <v>0.9866519003460271</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,152 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3719673333333333</v>
+        <v>0.5389353333333333</v>
       </c>
       <c r="N5">
-        <v>1.115902</v>
+        <v>1.616806</v>
       </c>
       <c r="O5">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="P5">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="Q5">
-        <v>0.05235911375288889</v>
+        <v>0.07586197468088889</v>
       </c>
       <c r="R5">
-        <v>0.471232023776</v>
+        <v>0.6827577721279999</v>
       </c>
       <c r="S5">
-        <v>3.87735072601607E-05</v>
+        <v>0.07722977115035665</v>
       </c>
       <c r="T5">
-        <v>3.87735072601607E-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.3528893333333333</v>
-      </c>
-      <c r="H6">
-        <v>1.058668</v>
-      </c>
-      <c r="I6">
-        <v>0.001755640607465037</v>
-      </c>
-      <c r="J6">
-        <v>0.001755640607465036</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>6.346253666666667</v>
-      </c>
-      <c r="N6">
-        <v>19.038761</v>
-      </c>
-      <c r="O6">
-        <v>0.9446330608455225</v>
-      </c>
-      <c r="P6">
-        <v>0.9446330608455226</v>
-      </c>
-      <c r="Q6">
-        <v>2.239525225594222</v>
-      </c>
-      <c r="R6">
-        <v>20.155727030348</v>
-      </c>
-      <c r="S6">
-        <v>0.00165843616077439</v>
-      </c>
-      <c r="T6">
-        <v>0.00165843616077439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.3528893333333333</v>
-      </c>
-      <c r="H7">
-        <v>1.058668</v>
-      </c>
-      <c r="I7">
-        <v>0.001755640607465037</v>
-      </c>
-      <c r="J7">
-        <v>0.001755640607465036</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.3719673333333333</v>
-      </c>
-      <c r="N7">
-        <v>1.115902</v>
-      </c>
-      <c r="O7">
-        <v>0.05536693915447755</v>
-      </c>
-      <c r="P7">
-        <v>0.05536693915447755</v>
-      </c>
-      <c r="Q7">
-        <v>0.1312633042817778</v>
-      </c>
-      <c r="R7">
-        <v>1.181369738536</v>
-      </c>
-      <c r="S7">
-        <v>9.720444669064668E-05</v>
-      </c>
-      <c r="T7">
-        <v>9.720444669064667E-05</v>
+        <v>0.07722977115035665</v>
       </c>
     </row>
   </sheetData>
